--- a/input/input_elaborati/items_in_machines.xlsx
+++ b/input/input_elaborati/items_in_machines.xlsx
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U2" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="U3" t="n">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="U4" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -964,14 +964,14 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>22298850</t>
+          <t>23069229</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>145</v>
+        <v>685</v>
       </c>
       <c r="U6" t="n">
-        <v>575</v>
+        <v>35</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="U7" t="n">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="U8" t="n">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="U9" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1316,10 +1316,10 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="U10" t="n">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>FERMO GENERICO</t>
+          <t>PREPARAZIONE MACCHINE CONTEMP</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1490,10 +1490,10 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="U13" t="n">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1664,10 +1664,10 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="U14" t="n">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="U15" t="n">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1929,10 +1929,10 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="U17" t="n">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>451</v>
+        <v>296</v>
       </c>
       <c r="U18" t="n">
-        <v>221</v>
+        <v>376</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2093,24 +2093,24 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>FERMO GENERICO</t>
+          <t>LAVORAZIONE</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>LENDP1040UX</t>
+          <t>LU82M  CA3</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>23037501</t>
+          <t>23028656</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="U19" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2194,10 +2194,10 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="U20" t="n">
-        <v>535</v>
+        <v>622</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2272,27 +2272,27 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
+          <t>PLS0000024</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>23028583</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>224</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
           <t>LG3D 0400</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>23019359</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" t="n">
-        <v>318</v>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>LU3D 0400</t>
-        </is>
-      </c>
       <c r="W21" t="n">
-        <v>23019471</v>
+        <v>23019359</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="U22" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2455,10 +2455,10 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="U23" t="n">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="U24" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="U25" t="n">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2726,10 +2726,10 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="U26" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="U27" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2920,10 +2920,10 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="U28" t="n">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -3017,10 +3017,10 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="U29" t="n">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>ATTREZZAGGIO</t>
+          <t>LAVORAZIONE</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="U32" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="U33" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3488,24 +3488,24 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>MANCANZA ORDINI</t>
+          <t>ATTREZZAGGIO</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>LM01 1100</t>
+          <t>LSB38004X</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>23028527</t>
+          <t>23040825</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="U34" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3585,32 +3585,32 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>LAVORAZIONE</t>
+          <t>ATTREZZAGGIO</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
+          <t>LU74MR FA3</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>23048860</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>120</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
           <t>LENDM1060N-1</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>23022816</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>12</v>
-      </c>
-      <c r="U35" t="n">
-        <v>372</v>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>LENDM1060N-1</t>
-        </is>
-      </c>
       <c r="W35" t="n">
-        <v>23068983</v>
+        <v>23022816</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3696,10 +3696,10 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="U36" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>FERMO GENERICO</t>
+          <t>LAVORAZIONE</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3789,22 +3789,22 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>23066086</t>
+          <t>23066097</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="U37" t="n">
-        <v>316</v>
+        <v>10</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>LENDM1260N-1</t>
+          <t>LENDM1244N-1</t>
         </is>
       </c>
       <c r="W37" t="n">
-        <v>23001089</v>
+        <v>23066086</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>ATTREZZAGGIO</t>
+          <t>LAVORAZIONE</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3977,24 +3977,24 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>LAVORAZIONE</t>
+          <t>ATTREZZAGGIO</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>LU89M  HA3</t>
+          <t>LU89M  IA3</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>23059616</t>
+          <t>23059608</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="U39" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -4090,10 +4090,10 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="U40" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>FERMO GENERICO</t>
+          <t>LAVORAZIONE</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4189,10 +4189,10 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="U41" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -4286,10 +4286,10 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="U42" t="n">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="U43" t="n">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4480,10 +4480,10 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="U44" t="n">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>FERMO GENERICO</t>
+          <t>LAVORAZIONE</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -4577,10 +4577,10 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="U45" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4674,10 +4674,10 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="U46" t="n">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="U47" t="n">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4868,10 +4868,10 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="U48" t="n">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>LAVORAZIONE</t>
+          <t>FERMO GENERICO</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4965,10 +4965,10 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="U49" t="n">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -5062,10 +5062,10 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="U50" t="n">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -5159,10 +5159,10 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="U51" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -5256,10 +5256,10 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -5351,14 +5351,14 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>22188204</t>
+          <t>23023197</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="U53" t="n">
-        <v>744</v>
+        <v>11</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         </is>
       </c>
       <c r="W53" t="n">
-        <v>23023198</v>
+        <v>22188204</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -5454,10 +5454,10 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="U54" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5553,10 +5553,10 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="U55" t="n">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5652,10 +5652,10 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="U56" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5850,10 +5850,10 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="U58" t="n">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="U60" t="n">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="U61" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -6240,10 +6240,10 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="U62" t="n">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="U63" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>ATTREZZAGGIO</t>
+          <t>LAVORAZIONE</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="U65" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
